--- a/items_management/static/reports/items_report.xlsx
+++ b/items_management/static/reports/items_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,58 +1569,6 @@
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>21</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Alfa-Romeo</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12-00-01</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>12423</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>12423</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>В работе</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23423</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-23423</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>23423</v>
-      </c>
-      <c r="N25" t="inlineStr">
         <is>
           <t>admin</t>
         </is>

--- a/items_management/static/reports/items_report.xlsx
+++ b/items_management/static/reports/items_report.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Без статуса</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>АдминАдминов</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1547,32 +1547,33 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>В работе</t>
+          <t>Потерян</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>123123</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1600599</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-1600599</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>admin</t>
-        </is>
-      </c>
+          <t>АдминАдминов</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="17">
